--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9279535284692304</v>
+        <v>0.9465677239387782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7419065718499559</v>
+        <v>0.7802051301569105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8235059099974895</v>
+        <v>0.6018939966096136</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3289269300697023</v>
+        <v>0.9736909597388634</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6934607381937795</v>
+        <v>0.9210284582783193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.481775086869754</v>
+        <v>0.3573018760543984</v>
       </c>
       <c r="H2" t="n">
-        <v>1.725871942450307</v>
+        <v>1.469769306703056</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5081099005700171</v>
+        <v>0.945925028395409</v>
       </c>
       <c r="J2" t="n">
-        <v>1.450440724797686</v>
+        <v>0.3589268329643832</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9792753126838514</v>
+        <v>0.6524259306798962</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7136481179778343</v>
+        <v>1.237394284716038</v>
       </c>
       <c r="M2" t="n">
-        <v>0.694100199445119</v>
+        <v>0.5977473346275987</v>
       </c>
       <c r="N2" t="n">
-        <v>1.192123924082052</v>
+        <v>1.142486069496591</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7236494819209885</v>
+        <v>0.6231946761702597</v>
       </c>
       <c r="P2" t="n">
-        <v>67.46055579717259</v>
+        <v>68.05834852664906</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.6834580178232</v>
+        <v>108.2812507472997</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9278648611101115</v>
+        <v>0.9465813378950528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7415947678643939</v>
+        <v>0.779989947153587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8222573172227039</v>
+        <v>0.5964057902665192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3191974088999014</v>
+        <v>0.9733293887612019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6896067968340691</v>
+        <v>0.9199406978022238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4823680059084582</v>
+        <v>0.3572108394661035</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727956977137485</v>
+        <v>1.471208236437106</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5117044818426234</v>
+        <v>0.958965353576943</v>
       </c>
       <c r="J3" t="n">
-        <v>1.471469871055821</v>
+        <v>0.3638596440671734</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9915871764492223</v>
+        <v>0.6614124988220582</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6941037281539022</v>
+        <v>1.223842649965424</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6945271815476037</v>
+        <v>0.5976711800531321</v>
       </c>
       <c r="N3" t="n">
-        <v>1.192360370373036</v>
+        <v>1.142449765613192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7240946415355509</v>
+        <v>0.6231152795378965</v>
       </c>
       <c r="P3" t="n">
-        <v>67.45809591702455</v>
+        <v>68.05885816958086</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.6809981376752</v>
+        <v>108.2817603902315</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9277447323096878</v>
+        <v>0.946581608670198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7412598822735009</v>
+        <v>0.7797617026003177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8207247196423223</v>
+        <v>0.5909126979078544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.309430201374683</v>
+        <v>0.9729546669768271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6856121378687546</v>
+        <v>0.9188413763811483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4831713077500331</v>
+        <v>0.3572090287914612</v>
       </c>
       <c r="H4" t="n">
-        <v>1.730196358625793</v>
+        <v>1.472734508815788</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5161166862635788</v>
+        <v>0.9720172882403179</v>
       </c>
       <c r="J4" t="n">
-        <v>1.492580471669848</v>
+        <v>0.3689718679253378</v>
       </c>
       <c r="K4" t="n">
-        <v>1.004348578966713</v>
+        <v>0.670494578082828</v>
       </c>
       <c r="L4" t="n">
-        <v>0.674704712178591</v>
+        <v>1.210360552934332</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6951052494047453</v>
+        <v>0.5976696652762805</v>
       </c>
       <c r="N4" t="n">
-        <v>1.192680713840833</v>
+        <v>1.142449043546139</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7246973189381364</v>
+        <v>0.6231137002738582</v>
       </c>
       <c r="P4" t="n">
-        <v>67.45476802756193</v>
+        <v>68.0588683074548</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.6776702482126</v>
+        <v>108.2817705281054</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.927593959946224</v>
+        <v>0.9465687047242209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7409024995314213</v>
+        <v>0.7795209195050983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8189154485707968</v>
+        <v>0.5854158669830163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2996290637832747</v>
+        <v>0.972567340217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6814813353864784</v>
+        <v>0.9177311097020148</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4841795232387585</v>
+        <v>0.357295317537627</v>
       </c>
       <c r="H5" t="n">
-        <v>1.732586178667676</v>
+        <v>1.474344626482225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5213254076674737</v>
+        <v>0.9850781059732358</v>
       </c>
       <c r="J5" t="n">
-        <v>1.513764407889194</v>
+        <v>0.3742560579165802</v>
       </c>
       <c r="K5" t="n">
-        <v>1.017544907778334</v>
+        <v>0.679667081944908</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6714839840740743</v>
+        <v>1.196945050615472</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6958300965313001</v>
+        <v>0.5977418485748066</v>
       </c>
       <c r="N5" t="n">
-        <v>1.193082773476736</v>
+        <v>1.142483454068744</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7254530243075091</v>
+        <v>0.6231889565648425</v>
       </c>
       <c r="P5" t="n">
-        <v>67.45059905051041</v>
+        <v>68.05838523833407</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.673501271161</v>
+        <v>108.2812874589847</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.927413269856069</v>
+        <v>0.946543202218209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7405233886185605</v>
+        <v>0.7792679820281914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8168377314570306</v>
+        <v>0.5799175904825205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2897911038277533</v>
+        <v>0.9721676230072975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6772171181517732</v>
+        <v>0.9166104046322139</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4853877987036268</v>
+        <v>0.357465852912757</v>
       </c>
       <c r="H6" t="n">
-        <v>1.735121295087621</v>
+        <v>1.476036020554971</v>
       </c>
       <c r="I6" t="n">
-        <v>0.527306960002021</v>
+        <v>0.9981423584852915</v>
       </c>
       <c r="J6" t="n">
-        <v>1.535027931055008</v>
+        <v>0.3797092873288209</v>
       </c>
       <c r="K6" t="n">
-        <v>1.031167445528514</v>
+        <v>0.6889258229070563</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6813943942103343</v>
+        <v>1.183593577518794</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6966977814688567</v>
+        <v>0.5978844812442927</v>
       </c>
       <c r="N6" t="n">
-        <v>1.193564613717149</v>
+        <v>1.142551460751443</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7263576483892129</v>
+        <v>0.6233376614023589</v>
       </c>
       <c r="P6" t="n">
-        <v>67.44561424517295</v>
+        <v>68.057430875476</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.6685164658236</v>
+        <v>108.2803330961266</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9272036318605265</v>
+        <v>0.946505420910782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.740123192793518</v>
+        <v>0.7790033541552703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8145002902372557</v>
+        <v>0.5744182622140916</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2799209878438471</v>
+        <v>0.9717562062679611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.672824994703762</v>
+        <v>0.9154798882795442</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4867896489451135</v>
+        <v>0.3577184966894879</v>
       </c>
       <c r="H7" t="n">
-        <v>1.737797406412412</v>
+        <v>1.477805588359693</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5340362336323802</v>
+        <v>1.011209110064438</v>
       </c>
       <c r="J7" t="n">
-        <v>1.556360955464736</v>
+        <v>0.3853221301316314</v>
       </c>
       <c r="K7" t="n">
-        <v>1.045198594548558</v>
+        <v>0.6982656200980349</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6912314168653896</v>
+        <v>1.170313742168444</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6977031237891325</v>
+        <v>0.5980957253563077</v>
       </c>
       <c r="N7" t="n">
-        <v>1.19412364837193</v>
+        <v>1.142652210904581</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7274057902134082</v>
+        <v>0.623557898613558</v>
       </c>
       <c r="P7" t="n">
-        <v>67.43984636312018</v>
+        <v>68.05601784798243</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.6627485837708</v>
+        <v>108.2789200686331</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9269657681413266</v>
+        <v>0.9464558925973517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7397025656699711</v>
+        <v>0.7787274507022548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8119113444013299</v>
+        <v>0.5689211195041715</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2700178531248116</v>
+        <v>0.9713334539467876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6683083767989919</v>
+        <v>0.9143403266840942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.488380244730665</v>
+        <v>0.3580496927494532</v>
       </c>
       <c r="H8" t="n">
-        <v>1.740610141924381</v>
+        <v>1.479650556020427</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5414895654196069</v>
+        <v>1.024270668618419</v>
       </c>
       <c r="J8" t="n">
-        <v>1.577765345751384</v>
+        <v>0.3910896210876317</v>
       </c>
       <c r="K8" t="n">
-        <v>1.059627455585495</v>
+        <v>0.7076801448530256</v>
       </c>
       <c r="L8" t="n">
-        <v>0.700988187126521</v>
+        <v>1.15709710426431</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6988420742418597</v>
+        <v>0.598372536760715</v>
       </c>
       <c r="N8" t="n">
-        <v>1.194757951623129</v>
+        <v>1.142784286407062</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7285932281448606</v>
+        <v>0.6238464944525296</v>
       </c>
       <c r="P8" t="n">
-        <v>67.43332197303616</v>
+        <v>68.05416699130292</v>
       </c>
       <c r="Q8" t="n">
-        <v>107.6562241936868</v>
+        <v>108.2770692119535</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9267005715690569</v>
+        <v>0.9463947801282647</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7392622188278954</v>
+        <v>0.7784407071812478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8090790491209775</v>
+        <v>0.5634253899835038</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2600841061602208</v>
+        <v>0.9708996210650043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6636717531299497</v>
+        <v>0.9131918193422186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4901536154305496</v>
+        <v>0.3584583521116352</v>
       </c>
       <c r="H9" t="n">
-        <v>1.743554743284952</v>
+        <v>1.481568011265733</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5496434773906218</v>
+        <v>1.037328869345409</v>
       </c>
       <c r="J9" t="n">
-        <v>1.599235900587945</v>
+        <v>0.3970082810139806</v>
       </c>
       <c r="K9" t="n">
-        <v>1.074439688989283</v>
+        <v>0.7171685751796946</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7106628979446983</v>
+        <v>1.143951504846605</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7001097167091381</v>
+        <v>0.5987139150810136</v>
       </c>
       <c r="N9" t="n">
-        <v>1.195465142482515</v>
+        <v>1.142947252991294</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7299148367763527</v>
+        <v>0.6242024059546739</v>
       </c>
       <c r="P9" t="n">
-        <v>67.42607287225985</v>
+        <v>68.05188559664489</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.6489750929105</v>
+        <v>108.2747878172955</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9264089048542087</v>
+        <v>0.9463226573799056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7388027683043181</v>
+        <v>0.7781435647261803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.80601334107846</v>
+        <v>0.5579346508118663</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2501207019812586</v>
+        <v>0.9704552742424458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6589199241096904</v>
+        <v>0.9120353485046923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.492103992095742</v>
+        <v>0.3589406372620075</v>
       </c>
       <c r="H10" t="n">
-        <v>1.746627091051688</v>
+        <v>1.483555004230984</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5584693627709089</v>
+        <v>1.050375212687661</v>
       </c>
       <c r="J10" t="n">
-        <v>1.620770555793655</v>
+        <v>0.40307037967572</v>
       </c>
       <c r="K10" t="n">
-        <v>1.089619959282282</v>
+        <v>0.7267227961816907</v>
       </c>
       <c r="L10" t="n">
-        <v>0.720244564350052</v>
+        <v>1.130873424457854</v>
       </c>
       <c r="M10" t="n">
-        <v>0.701501241692231</v>
+        <v>0.5991165473111284</v>
       </c>
       <c r="N10" t="n">
-        <v>1.196242920388777</v>
+        <v>1.143139580320252</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7313656018588297</v>
+        <v>0.6246221790723883</v>
       </c>
       <c r="P10" t="n">
-        <v>67.41813043755246</v>
+        <v>68.04919651996555</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.6410326582031</v>
+        <v>108.2720987406162</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9260915373536317</v>
+        <v>0.9462398917464881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7383248693515396</v>
+        <v>0.7778363661112749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8027226133475708</v>
+        <v>0.5524492473821587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2401272197294814</v>
+        <v>0.9700008539398092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6540565291796684</v>
+        <v>0.9108713275183726</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4942262300334433</v>
+        <v>0.3594940914337705</v>
       </c>
       <c r="H11" t="n">
-        <v>1.74982280354944</v>
+        <v>1.485609242783376</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5679430586896864</v>
+        <v>1.063408877969815</v>
       </c>
       <c r="J11" t="n">
-        <v>1.642370221001538</v>
+        <v>0.409269907991508</v>
       </c>
       <c r="K11" t="n">
-        <v>1.105156639845612</v>
+        <v>0.7363393929806618</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7297381602690297</v>
+        <v>1.11786431493513</v>
       </c>
       <c r="M11" t="n">
-        <v>0.703012254540021</v>
+        <v>0.5995782613085389</v>
       </c>
       <c r="N11" t="n">
-        <v>1.197089233723649</v>
+        <v>1.143360288676032</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7329409416517779</v>
+        <v>0.6251035491905482</v>
       </c>
       <c r="P11" t="n">
-        <v>67.40952382218111</v>
+        <v>68.04611507493433</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.6324260428317</v>
+        <v>108.269017295585</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9257494093254226</v>
+        <v>0.9461466963192486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7378291454592232</v>
+        <v>0.7775195224820414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7992163547661569</v>
+        <v>0.5469705311599615</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2301053146537059</v>
+        <v>0.9695366172022821</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6490864038324373</v>
+        <v>0.9097001629641877</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4965140417334318</v>
+        <v>0.3601172896848465</v>
       </c>
       <c r="H12" t="n">
-        <v>1.753137711499959</v>
+        <v>1.487727977590992</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5780372476744259</v>
+        <v>1.076426654024225</v>
       </c>
       <c r="J12" t="n">
-        <v>1.664031318597767</v>
+        <v>0.4156033591661765</v>
       </c>
       <c r="K12" t="n">
-        <v>1.121034283136097</v>
+        <v>0.7460150065952008</v>
       </c>
       <c r="L12" t="n">
-        <v>0.739133755767009</v>
+        <v>1.104926872799467</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7046375250676278</v>
+        <v>0.6000977334441836</v>
       </c>
       <c r="N12" t="n">
-        <v>1.198001575132206</v>
+        <v>1.143608809815337</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7346354033105188</v>
+        <v>0.6256451363304629</v>
       </c>
       <c r="P12" t="n">
-        <v>67.40028702891981</v>
+        <v>68.04265099182935</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6231892495704</v>
+        <v>108.26555321248</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,767 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9253833667691664</v>
+        <v>0.946043498977432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7373162952316427</v>
+        <v>0.7771934328156953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7955030712743948</v>
+        <v>0.5415005032725261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2200574243007725</v>
+        <v>0.9690630093553475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6440142053184159</v>
+        <v>0.908522510305004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4989617699925883</v>
+        <v>0.3608073707847549</v>
       </c>
       <c r="H13" t="n">
-        <v>1.756567143333248</v>
+        <v>1.489908540691353</v>
       </c>
       <c r="I13" t="n">
-        <v>0.588727441922634</v>
+        <v>1.089423786046051</v>
       </c>
       <c r="J13" t="n">
-        <v>1.68574858012893</v>
+        <v>0.4220646577494782</v>
       </c>
       <c r="K13" t="n">
-        <v>1.137238011025782</v>
+        <v>0.7557442218977644</v>
       </c>
       <c r="L13" t="n">
-        <v>0.748426413559423</v>
+        <v>1.092055795464121</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7063722602088706</v>
+        <v>0.6006724321830951</v>
       </c>
       <c r="N13" t="n">
-        <v>1.198977688615556</v>
+        <v>1.143884002726848</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7364439897181209</v>
+        <v>0.6262443011844803</v>
       </c>
       <c r="P13" t="n">
-        <v>67.39045159881374</v>
+        <v>68.03882212399606</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.6133538194644</v>
+        <v>108.2617243446467</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9459306845279604</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7768584117078183</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5360390132144819</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9685804836777042</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9073387221596432</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3615617615278346</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.492148828382357</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.102400631645565</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4286476197876773</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.765524125716621</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.079258197028445</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6013000594776576</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.144184841258772</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6268986478723398</v>
+      </c>
+      <c r="P14" t="n">
+        <v>68.03464480808603</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>108.2575470287367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9458085256098728</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7765148906427943</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.530588370345931</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9680891777613091</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9061492442271473</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3623786387755761</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.494445955325941</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.11535170363719</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.4353503681524226</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7753510358948065</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.066530386691611</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6019789354915802</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.144510598373673</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6276064250436423</v>
+      </c>
+      <c r="P15" t="n">
+        <v>68.03013130065314</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>108.2530335213038</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9456773931468243</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7761632188077084</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5251504879634525</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9675896366988814</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9049548017156243</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.363255522159791</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.49679758650646</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.128272455907315</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4421654662971345</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.785218961102225</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.053875571153706</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6027068293621626</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.144860284941802</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6283653068632434</v>
+      </c>
+      <c r="P16" t="n">
+        <v>68.0252975491113</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>108.2481997697619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9455374860349621</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7758037086125924</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.519724231398373</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9670821437544455</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9037554653411869</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3641910816610264</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.499201632836594</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.141165584500431</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4490890497304403</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.7951273171154356</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.041293234289359</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6034824617675533</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.145233370573434</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6291739595459119</v>
+      </c>
+      <c r="P17" t="n">
+        <v>68.02015319893009</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>108.2430554195807</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9453893391386194</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7754367466711669</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5143133817581405</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9665670329756954</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9025520546533299</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3651817406390236</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.50165550902861</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.154022105266236</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4561165611336481</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8050693331999423</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.028782985313631</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6043026895844694</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.145628428963682</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6300291061590999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>68.01472025952297</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>108.2376224801736</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9452329804179674</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7750626035474338</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5089168612446072</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9660446982597868</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.90134473989357</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.366227312123989</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.504157405819784</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.166844579121258</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4632426266787049</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8150436028999815</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.016346313444717</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6051671770048248</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.146045385552087</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6309303965986754</v>
+      </c>
+      <c r="P19" t="n">
+        <v>68.00900213397752</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>108.2319043546281</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9450689952389884</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7746816072362674</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5035371942767102</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9655152588237668</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9001339825152701</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3673238817709048</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.506705129906881</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.179627007886533</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4704656199209878</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8250463139037602</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.00397971809546</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6060725053744848</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.146482679362698</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6318742666713199</v>
+      </c>
+      <c r="P20" t="n">
+        <v>68.00302261694932</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>108.2259248375999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9448973976798898</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7742941272416636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4981740050377549</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9649792677580007</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8989201851490731</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.368471355438731</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.509296210414978</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.192370284526282</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4777779952042771</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8350741398652798</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9916880228386228</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6070184144148603</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.146940272853627</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6328604450178459</v>
+      </c>
+      <c r="P21" t="n">
+        <v>67.996784606481</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>108.2196868271316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9447187059062016</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7739004549098519</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4928298291830767</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.964436963357861</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8977039091844342</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3696662681521838</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.511928699110497</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.205068384163151</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.485176501531866</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8451224428475083</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9794732202512476</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.608001865253869</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.147416784250129</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6338857633950951</v>
+      </c>
+      <c r="P22" t="n">
+        <v>67.99030931667568</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>108.2132115373263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9445330117020601</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7735008642565531</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4875035598273275</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9638885460536311</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.89648516093885</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3709080061503213</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.514600763649052</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.217723936826691</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4926584044897962</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8551911706582436</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9673298387201783</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6090221721335942</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.147911968794507</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6349495068510167</v>
+      </c>
+      <c r="P23" t="n">
+        <v>67.9836024179626</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>108.2065046386132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9443406854724357</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7730956420783565</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4821981064421559</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.96333446391116</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8952647287603295</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3721940925334002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.517310486220529</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.230330029428359</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5002175912417759</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8652738103350673</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9552599832303545</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6100771201523625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.148424838740172</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6360493661909874</v>
+      </c>
+      <c r="P24" t="n">
+        <v>67.9766796133066</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>108.1995818339572</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9441419635375146</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7726851162510158</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4769138119585976</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9627748317494615</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8940427567667718</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3735229470272481</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.520055674318254</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.242885847142335</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5078524953443075</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8753691712433215</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.943267226483687</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6111652370899773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.148954763899961</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6371838065193489</v>
+      </c>
+      <c r="P25" t="n">
+        <v>67.96955167694507</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>108.1924538975957</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_15_9_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.943937065663465</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.772269520502715</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4716503113955504</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9622100744892998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8928195433202819</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3748931000544857</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.522834765000783</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.255392257186791</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5155573197229795</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8854747884548855</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9313471919167097</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6122851460344972</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.14950115823076</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6383513923061682</v>
+      </c>
+      <c r="P26" t="n">
+        <v>67.96222872034457</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>108.1851309409952</v>
       </c>
     </row>
   </sheetData>
